--- a/Calculate Total Cost from PDF using OCR_Dispatcher/Data/Config.xlsx
+++ b/Calculate Total Cost from PDF using OCR_Dispatcher/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FPT Software\Documents\GitHub\UiPath_Automation\Calculate Total Cost from PDF using OCR_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A52A8C4D-B93E-4954-841B-CB427D61A900}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2719FA92-BCBD-4B73-A0BA-EA760D44A196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -174,16 +174,16 @@
     <t>Output_Folder_Succeed</t>
   </si>
   <si>
-    <t>C:\Users\FPT Software\Documents\GitHub\UiPath_Automation\Calculate Total Cost from PDF using OCR_Dispatcher\Data\Output\Failed</t>
-  </si>
-  <si>
-    <t>C:\Users\FPT Software\Documents\GitHub\UiPath_Automation\Calculate Total Cost from PDF using OCR_Dispatcher\Data\Input\Invoice set 13</t>
-  </si>
-  <si>
-    <t>C:\Users\FPT Software\Documents\GitHub\UiPath_Automation\Calculate Total Cost from PDF using OCR_Dispatcher\Data\Output</t>
-  </si>
-  <si>
-    <t>C:\Users\FPT Software\Documents\GitHub\UiPath_Automation\Calculate Total Cost from PDF using OCR_Dispatcher\Data\Output\Succeed</t>
+    <t>Data\Output</t>
+  </si>
+  <si>
+    <t>Data\Input\Invoice set 13</t>
+  </si>
+  <si>
+    <t>Data\Output\Succeed</t>
+  </si>
+  <si>
+    <t>Data\Output\Failed</t>
   </si>
 </sst>
 </file>
@@ -562,7 +562,7 @@
   <dimension ref="A1:Z997"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1"/>
@@ -652,7 +652,7 @@
         <v>46</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="14.25" customHeight="1">
@@ -660,7 +660,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -668,7 +668,7 @@
         <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>

--- a/Calculate Total Cost from PDF using OCR_Dispatcher/Data/Config.xlsx
+++ b/Calculate Total Cost from PDF using OCR_Dispatcher/Data/Config.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FPT Software\Documents\GitHub\UiPath_Automation\Calculate Total Cost from PDF using OCR_Dispatcher\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2719FA92-BCBD-4B73-A0BA-EA760D44A196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C1AB464-163F-455B-AA77-1861DA7C92DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -177,13 +177,13 @@
     <t>Data\Output</t>
   </si>
   <si>
-    <t>Data\Input\Invoice set 13</t>
-  </si>
-  <si>
     <t>Data\Output\Succeed</t>
   </si>
   <si>
     <t>Data\Output\Failed</t>
+  </si>
+  <si>
+    <t>Data\Input\Invoice_set_13</t>
   </si>
 </sst>
 </file>
@@ -644,7 +644,7 @@
         <v>45</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="14.25" customHeight="1">
@@ -660,7 +660,7 @@
         <v>48</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="14.25" customHeight="1">
@@ -668,7 +668,7 @@
         <v>47</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="14.25" customHeight="1"/>
